--- a/draft_nfl_24/Draft nfl 2024.xlsx
+++ b/draft_nfl_24/Draft nfl 2024.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEGBESSOU\Desktop\celtis_ligue_pro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEGBESSOU\Desktop\Dashboard\draft_nfl_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFB40CE-CA13-402C-A68D-D270D1C25BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D843F655-02DC-461A-856E-99230AB84C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5D2E7048-C5E8-4934-B768-AA1019B3A3FE}"/>
   </bookViews>
   <sheets>
     <sheet name="TCD Draft 2024" sheetId="5" r:id="rId1"/>
-    <sheet name="Feuil6" sheetId="6" r:id="rId2"/>
-    <sheet name="Données" sheetId="1" r:id="rId3"/>
-    <sheet name="Données (2)" sheetId="7" r:id="rId4"/>
-    <sheet name="Feuil3" sheetId="9" r:id="rId5"/>
-    <sheet name="Données (3)" sheetId="10" r:id="rId6"/>
+    <sheet name="Feuil6" sheetId="6" state="hidden" r:id="rId2"/>
+    <sheet name="data" sheetId="1" r:id="rId3"/>
+    <sheet name="data_brut" sheetId="7" r:id="rId4"/>
+    <sheet name="Feuil3" sheetId="9" state="hidden" r:id="rId5"/>
+    <sheet name="Données (3)" sheetId="10" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -5765,7 +5765,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="DEGBESSOU" refreshedDate="45770.609889814812" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="260" xr:uid="{48393364-1549-4692-855F-98151CBD5E0B}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F1048576" sheet="Données"/>
+    <worksheetSource ref="A1:F1048576" sheet="data"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Tour" numFmtId="0">
@@ -16038,7 +16038,7 @@
   <dimension ref="A1:J258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31307,8 +31307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00418706-8429-4879-BFE7-DA9F8B2340F5}">
   <dimension ref="A1:K258"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0">
-      <selection sqref="A1:K258"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
